--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H2">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I2">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J2">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N2">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O2">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P2">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q2">
-        <v>2.11875930174125</v>
+        <v>2.4285085016365</v>
       </c>
       <c r="R2">
-        <v>8.475037206964998</v>
+        <v>9.714034006546001</v>
       </c>
       <c r="S2">
-        <v>0.0002573654579993421</v>
+        <v>0.0004553845004024656</v>
       </c>
       <c r="T2">
-        <v>0.0001193036975060302</v>
+        <v>0.0002233650497055674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H3">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I3">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J3">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.865437</v>
       </c>
       <c r="O3">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P3">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q3">
-        <v>0.4039861875618333</v>
+        <v>0.6819297715323334</v>
       </c>
       <c r="R3">
-        <v>2.423917125371</v>
+        <v>4.091578629194</v>
       </c>
       <c r="S3">
-        <v>4.907215751303723E-05</v>
+        <v>0.0001278728273380782</v>
       </c>
       <c r="T3">
-        <v>3.412165261850305E-05</v>
+        <v>9.408199140216045E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H4">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I4">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J4">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N4">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O4">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P4">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q4">
-        <v>11.97853543656667</v>
+        <v>4.712152754379667</v>
       </c>
       <c r="R4">
-        <v>71.8712126194</v>
+        <v>28.272916526278</v>
       </c>
       <c r="S4">
-        <v>0.001455031374380165</v>
+        <v>0.0008836046184014872</v>
       </c>
       <c r="T4">
-        <v>0.001011736137593559</v>
+        <v>0.0006501090485124746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H5">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I5">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J5">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N5">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O5">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P5">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q5">
-        <v>2.0424566083695</v>
+        <v>3.32164934642</v>
       </c>
       <c r="R5">
-        <v>8.169826433478001</v>
+        <v>13.28659738568</v>
       </c>
       <c r="S5">
-        <v>0.0002480969782762962</v>
+        <v>0.0006228628094619941</v>
       </c>
       <c r="T5">
-        <v>0.0001150072238851534</v>
+        <v>0.0003055127749676795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H6">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I6">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J6">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N6">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O6">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P6">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q6">
-        <v>1.495388645198833</v>
+        <v>2.429284769004333</v>
       </c>
       <c r="R6">
-        <v>8.972331871193001</v>
+        <v>14.575708614026</v>
       </c>
       <c r="S6">
-        <v>0.0001816446933081661</v>
+        <v>0.0004555300630501736</v>
       </c>
       <c r="T6">
-        <v>0.0001263041496271916</v>
+        <v>0.0003351546717740397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H7">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I7">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J7">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N7">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O7">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P7">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q7">
-        <v>26.62886956090367</v>
+        <v>8.113887230824666</v>
       </c>
       <c r="R7">
-        <v>159.773217365422</v>
+        <v>48.683323384948</v>
       </c>
       <c r="S7">
-        <v>0.003234605839801839</v>
+        <v>0.001521484681005286</v>
       </c>
       <c r="T7">
-        <v>0.002249138868495381</v>
+        <v>0.00111942710313587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J8">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N8">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O8">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P8">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q8">
-        <v>3.253711577643333</v>
+        <v>2.209346962492667</v>
       </c>
       <c r="R8">
-        <v>19.52226946586</v>
+        <v>13.256081774956</v>
       </c>
       <c r="S8">
-        <v>0.0003952279854015263</v>
+        <v>0.000414288178135858</v>
       </c>
       <c r="T8">
-        <v>0.0002748163664782586</v>
+        <v>0.0003048110972813991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J9">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.865437</v>
       </c>
       <c r="O9">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P9">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q9">
         <v>0.6203887976315555</v>
@@ -1013,10 +1013,10 @@
         <v>5.583499178684001</v>
       </c>
       <c r="S9">
-        <v>7.535855861913548E-05</v>
+        <v>0.0001163329024684713</v>
       </c>
       <c r="T9">
-        <v>7.859931240082813E-05</v>
+        <v>0.0001283872972585152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J10">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N10">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O10">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P10">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q10">
-        <v>18.39505761751111</v>
+        <v>4.286902997323111</v>
       </c>
       <c r="R10">
-        <v>165.5555185576</v>
+        <v>38.582126975908</v>
       </c>
       <c r="S10">
-        <v>0.002234445613885592</v>
+        <v>0.0008038634323883549</v>
       </c>
       <c r="T10">
-        <v>0.002330536730885109</v>
+        <v>0.0008871596191564547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J11">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N11">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O11">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P11">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q11">
-        <v>3.136535947252</v>
+        <v>3.021886021413333</v>
       </c>
       <c r="R11">
-        <v>18.819215683512</v>
+        <v>18.13131612848</v>
       </c>
       <c r="S11">
-        <v>0.0003809946745401919</v>
+        <v>0.0005666523527536259</v>
       </c>
       <c r="T11">
-        <v>0.0002649194287148723</v>
+        <v>0.0004169125129206034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J12">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N12">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O12">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P12">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q12">
-        <v>2.296420996930223</v>
+        <v>2.210053175359556</v>
       </c>
       <c r="R12">
-        <v>20.667788972372</v>
+        <v>19.890478578236</v>
       </c>
       <c r="S12">
-        <v>0.0002789460044605057</v>
+        <v>0.0004144206044351069</v>
       </c>
       <c r="T12">
-        <v>0.000290941925499976</v>
+        <v>0.0004573627942110672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J13">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N13">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O13">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P13">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q13">
-        <v>40.89311188800978</v>
+        <v>7.381646840169777</v>
       </c>
       <c r="R13">
-        <v>368.038006992088</v>
+        <v>66.434821561528</v>
       </c>
       <c r="S13">
-        <v>0.004967281777324448</v>
+        <v>0.001384177801392479</v>
       </c>
       <c r="T13">
-        <v>0.005180897025540058</v>
+        <v>0.00152760606049675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H14">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I14">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J14">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N14">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O14">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P14">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q14">
-        <v>137.1538506723233</v>
+        <v>116.6151263615913</v>
       </c>
       <c r="R14">
-        <v>822.9231040339399</v>
+        <v>699.690758169548</v>
       </c>
       <c r="S14">
-        <v>0.01666006306881888</v>
+        <v>0.02186721645065602</v>
       </c>
       <c r="T14">
-        <v>0.01158434667327521</v>
+        <v>0.01608872903592373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H15">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I15">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J15">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.865437</v>
       </c>
       <c r="O15">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P15">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q15">
-        <v>26.15127692749289</v>
+        <v>32.74574761561911</v>
       </c>
       <c r="R15">
-        <v>235.361492347436</v>
+        <v>294.711728540572</v>
       </c>
       <c r="S15">
-        <v>0.003176592715454085</v>
+        <v>0.006140355657884355</v>
       </c>
       <c r="T15">
-        <v>0.003313200355570109</v>
+        <v>0.006776618225746255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H16">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I16">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J16">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N16">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O16">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P16">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q16">
-        <v>775.4076922233777</v>
+        <v>226.2739819592182</v>
       </c>
       <c r="R16">
-        <v>6978.6692300104</v>
+        <v>2036.465837632964</v>
       </c>
       <c r="S16">
-        <v>0.09418868659657401</v>
+        <v>0.04243001997280981</v>
       </c>
       <c r="T16">
-        <v>0.09823921977918459</v>
+        <v>0.04682661114219383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H17">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I17">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J17">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N17">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O17">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P17">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q17">
-        <v>132.214541047108</v>
+        <v>159.5030686533067</v>
       </c>
       <c r="R17">
-        <v>793.2872462826481</v>
+        <v>957.0184119198399</v>
       </c>
       <c r="S17">
-        <v>0.01606008567504442</v>
+        <v>0.02990939713919037</v>
       </c>
       <c r="T17">
-        <v>0.01116716060999914</v>
+        <v>0.02200573572251946</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H18">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I18">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J18">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N18">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O18">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P18">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q18">
-        <v>96.80113770928756</v>
+        <v>116.6524021286431</v>
       </c>
       <c r="R18">
-        <v>871.210239383588</v>
+        <v>1049.871619157788</v>
       </c>
       <c r="S18">
-        <v>0.01175842348913056</v>
+        <v>0.02187420625799849</v>
       </c>
       <c r="T18">
-        <v>0.01226408808897693</v>
+        <v>0.02414080764382933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H19">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I19">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J19">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N19">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O19">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P19">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q19">
-        <v>1723.769187149972</v>
+        <v>389.6226774864915</v>
       </c>
       <c r="R19">
-        <v>15513.92268434975</v>
+        <v>3506.604097378423</v>
       </c>
       <c r="S19">
-        <v>0.2093860524748672</v>
+        <v>0.07306053415629114</v>
       </c>
       <c r="T19">
-        <v>0.218390585653655</v>
+        <v>0.08063105379092422</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H20">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I20">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J20">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N20">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O20">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P20">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q20">
-        <v>10.18724833802375</v>
+        <v>8.4025790506685</v>
       </c>
       <c r="R20">
-        <v>40.74899335209499</v>
+        <v>33.610316202674</v>
       </c>
       <c r="S20">
-        <v>0.00123744392867742</v>
+        <v>0.001575619051982893</v>
       </c>
       <c r="T20">
-        <v>0.000573626458248262</v>
+        <v>0.0007728375198368791</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H21">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I21">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J21">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.865437</v>
       </c>
       <c r="O21">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P21">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q21">
-        <v>1.942413946898833</v>
+        <v>2.359460058897667</v>
       </c>
       <c r="R21">
-        <v>11.654483681393</v>
+        <v>14.156760353386</v>
       </c>
       <c r="S21">
-        <v>0.0002359448072544575</v>
+        <v>0.0004424368040781567</v>
       </c>
       <c r="T21">
-        <v>0.0001640609901477708</v>
+        <v>0.0003255213516725396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H22">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I22">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J22">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N22">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O22">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P22">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q22">
-        <v>57.59423220836666</v>
+        <v>16.30393140103033</v>
       </c>
       <c r="R22">
-        <v>345.5653932502</v>
+        <v>97.82358840618198</v>
       </c>
       <c r="S22">
-        <v>0.006995965015112867</v>
+        <v>0.003057250016069979</v>
       </c>
       <c r="T22">
-        <v>0.004864548454252524</v>
+        <v>0.002249361148210875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H23">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I23">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J23">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N23">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O23">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P23">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q23">
-        <v>9.8203758548685</v>
+        <v>11.49282417298</v>
       </c>
       <c r="R23">
-        <v>39.281503419474</v>
+        <v>45.97129669192</v>
       </c>
       <c r="S23">
-        <v>0.001192879968733027</v>
+        <v>0.002155089838351018</v>
       </c>
       <c r="T23">
-        <v>0.0005529684987916738</v>
+        <v>0.001057066607312733</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H24">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I24">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J24">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N24">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O24">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P24">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q24">
-        <v>7.190007603969834</v>
+        <v>8.405264916465667</v>
       </c>
       <c r="R24">
-        <v>43.140045623819</v>
+        <v>50.431589498794</v>
       </c>
       <c r="S24">
-        <v>0.0008733694282751676</v>
+        <v>0.001576122695125739</v>
       </c>
       <c r="T24">
-        <v>0.0006072854700001436</v>
+        <v>0.001159626833459505</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H25">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I25">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J25">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N25">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O25">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P25">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q25">
-        <v>128.0347923215377</v>
+        <v>28.07384813323533</v>
       </c>
       <c r="R25">
-        <v>768.208753929226</v>
+        <v>168.443088799412</v>
       </c>
       <c r="S25">
-        <v>0.01555237205972506</v>
+        <v>0.005264299177010513</v>
       </c>
       <c r="T25">
-        <v>0.01081412890139719</v>
+        <v>0.003873189951454364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H26">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I26">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J26">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N26">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O26">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P26">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q26">
-        <v>2.2668086072975</v>
+        <v>398.81202710533</v>
       </c>
       <c r="R26">
-        <v>13.600851643785</v>
+        <v>2392.87216263198</v>
       </c>
       <c r="S26">
-        <v>0.0002753489907676255</v>
+        <v>0.07478368537539472</v>
       </c>
       <c r="T26">
-        <v>0.0001914601494611727</v>
+        <v>0.05502183842317081</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H27">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I27">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J27">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.865437</v>
       </c>
       <c r="O27">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P27">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q27">
-        <v>0.4322149129643333</v>
+        <v>111.9871700449133</v>
       </c>
       <c r="R27">
-        <v>3.889934216679</v>
+        <v>1007.88453040422</v>
       </c>
       <c r="S27">
-        <v>5.250109766493718E-05</v>
+        <v>0.02099940002187487</v>
       </c>
       <c r="T27">
-        <v>5.475887878387511E-05</v>
+        <v>0.02317535414015487</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H28">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I28">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J28">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N28">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O28">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P28">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q28">
-        <v>12.81554125006667</v>
+        <v>773.8343064221266</v>
       </c>
       <c r="R28">
-        <v>115.3398712506</v>
+        <v>6964.508757799138</v>
       </c>
       <c r="S28">
-        <v>0.001556702377954052</v>
+        <v>0.1451064094636119</v>
       </c>
       <c r="T28">
-        <v>0.001623647516114424</v>
+        <v>0.1601423099623053</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H29">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I29">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J29">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N29">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O29">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P29">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q29">
-        <v>2.185174227237</v>
+        <v>545.4844849363999</v>
       </c>
       <c r="R29">
-        <v>13.111045363422</v>
+        <v>3272.906909618399</v>
       </c>
       <c r="S29">
-        <v>0.0002654328716523034</v>
+        <v>0.1022871361095363</v>
       </c>
       <c r="T29">
-        <v>0.0001845651118487175</v>
+        <v>0.07525740738152384</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H30">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I30">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J30">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N30">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O30">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P30">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q30">
-        <v>1.599879632106333</v>
+        <v>398.9395064871533</v>
       </c>
       <c r="R30">
-        <v>14.398916688957</v>
+        <v>3590.45555838438</v>
       </c>
       <c r="S30">
-        <v>0.0001943372019287306</v>
+        <v>0.07480758981491556</v>
       </c>
       <c r="T30">
-        <v>0.0002026945674836788</v>
+        <v>0.08255913904807471</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H31">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I31">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J31">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N31">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O31">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P31">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q31">
-        <v>28.48957438140867</v>
+        <v>1332.470449269026</v>
       </c>
       <c r="R31">
-        <v>256.406169432678</v>
+        <v>11992.23404342124</v>
       </c>
       <c r="S31">
-        <v>0.003460625448512133</v>
+        <v>0.2498596934836872</v>
       </c>
       <c r="T31">
-        <v>0.00360944776166131</v>
+        <v>0.2757501107556883</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H32">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I32">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J32">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.2611775</v>
+        <v>2.2144165</v>
       </c>
       <c r="N32">
-        <v>6.522354999999999</v>
+        <v>4.428833</v>
       </c>
       <c r="O32">
-        <v>0.04743349833867069</v>
+        <v>0.1119777896864542</v>
       </c>
       <c r="P32">
-        <v>0.03263576832733773</v>
+        <v>0.08188917102180387</v>
       </c>
       <c r="Q32">
-        <v>235.5155590714208</v>
+        <v>68.69593868131</v>
       </c>
       <c r="R32">
-        <v>1413.093354428525</v>
+        <v>412.17563208786</v>
       </c>
       <c r="S32">
-        <v>0.0286080489070059</v>
+        <v>0.0128815961298822</v>
       </c>
       <c r="T32">
-        <v>0.0198922149823688</v>
+        <v>0.009477589895885496</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H33">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I33">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J33">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.865437</v>
       </c>
       <c r="O33">
-        <v>0.009044197772164078</v>
+        <v>0.03144357472338349</v>
       </c>
       <c r="P33">
-        <v>0.009334047251528615</v>
+        <v>0.03449195070651812</v>
       </c>
       <c r="Q33">
-        <v>44.90601303440388</v>
+        <v>19.28994925839333</v>
       </c>
       <c r="R33">
-        <v>404.154117309635</v>
+        <v>173.60954332554</v>
       </c>
       <c r="S33">
-        <v>0.005454728435658426</v>
+        <v>0.003617176509739558</v>
       </c>
       <c r="T33">
-        <v>0.005689306062007529</v>
+        <v>0.003991987700283789</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H34">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I34">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J34">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.43726666666667</v>
+        <v>4.296739666666666</v>
       </c>
       <c r="N34">
-        <v>55.3118</v>
+        <v>12.890219</v>
       </c>
       <c r="O34">
-        <v>0.2681681870437785</v>
+        <v>0.2172759328389421</v>
       </c>
       <c r="P34">
-        <v>0.2767624716176962</v>
+        <v>0.2383402914942843</v>
       </c>
       <c r="Q34">
-        <v>1331.501632998778</v>
+        <v>133.2940594828866</v>
       </c>
       <c r="R34">
-        <v>11983.514696989</v>
+        <v>1199.64653534598</v>
       </c>
       <c r="S34">
-        <v>0.1617373560658718</v>
+        <v>0.02499478533566051</v>
       </c>
       <c r="T34">
-        <v>0.168692782999666</v>
+        <v>0.02758474057390541</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H35">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I35">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J35">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.143733</v>
+        <v>3.02882</v>
       </c>
       <c r="N35">
-        <v>6.287466</v>
+        <v>6.057639999999999</v>
       </c>
       <c r="O35">
-        <v>0.04572527991276901</v>
+        <v>0.1531602428712602</v>
       </c>
       <c r="P35">
-        <v>0.0314604592577394</v>
+        <v>0.1120058304181982</v>
       </c>
       <c r="Q35">
-        <v>227.033957846905</v>
+        <v>93.96047807479998</v>
       </c>
       <c r="R35">
-        <v>1362.20374708143</v>
+        <v>563.7628684487998</v>
       </c>
       <c r="S35">
-        <v>0.02757778974452276</v>
+        <v>0.01761910462196692</v>
       </c>
       <c r="T35">
-        <v>0.01917583838449984</v>
+        <v>0.01296319541895389</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H36">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I36">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J36">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.301690333333334</v>
+        <v>2.215124333333333</v>
       </c>
       <c r="N36">
-        <v>6.905071</v>
+        <v>6.645373</v>
       </c>
       <c r="O36">
-        <v>0.03347785411934832</v>
+        <v>0.112013583139101</v>
       </c>
       <c r="P36">
-        <v>0.03455075619769521</v>
+        <v>0.1228730200711289</v>
       </c>
       <c r="Q36">
-        <v>166.2233612443006</v>
+        <v>68.71789718607333</v>
       </c>
       <c r="R36">
-        <v>1496.010251198705</v>
+        <v>618.4610746746599</v>
       </c>
       <c r="S36">
-        <v>0.02019113330224519</v>
+        <v>0.01288571370357589</v>
       </c>
       <c r="T36">
-        <v>0.02105944199610729</v>
+        <v>0.01422092907978022</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H37">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I37">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J37">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>40.98694466666667</v>
+        <v>7.398584666666665</v>
       </c>
       <c r="N37">
-        <v>122.960834</v>
+        <v>22.195754</v>
       </c>
       <c r="O37">
-        <v>0.5961509828132695</v>
+        <v>0.374128876740859</v>
       </c>
       <c r="P37">
-        <v>0.6152564973480028</v>
+        <v>0.4103997362880667</v>
       </c>
       <c r="Q37">
-        <v>2959.993188901674</v>
+        <v>229.5199293311866</v>
       </c>
       <c r="R37">
-        <v>26639.93870011507</v>
+        <v>2065.67936398068</v>
       </c>
       <c r="S37">
-        <v>0.3595500452130388</v>
+        <v>0.04303868744147233</v>
       </c>
       <c r="T37">
-        <v>0.3750122991372539</v>
+        <v>0.04749834862636728</v>
       </c>
     </row>
   </sheetData>
